--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\(Udemy) Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E07F4-7A80-4357-BA9D-07BE2AF201AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103C113-FC03-42D4-B30D-4A0B296036FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -1263,6 +1263,8 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,8 +1274,6 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5655,7 +5655,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -5746,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="49">
-        <f t="shared" ref="E3:E26" si="0">IFERROR(C4/$B4,"-")</f>
+        <f t="shared" ref="E4:E26" si="0">IFERROR(C4/$B4,"-")</f>
         <v>0.35678391959798994</v>
       </c>
       <c r="F4" s="49">
@@ -5768,11 +5768,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="49">
-        <f>IFERROR(C5/$B5,"-")</f>
+        <f t="shared" ref="E5:E10" si="1">IFERROR(C5/$B5,"-")</f>
         <v>0.23487544483985764</v>
       </c>
       <c r="F5" s="49">
-        <f t="shared" ref="F3:F26" si="1">IFERROR(D5/$B5,"-")</f>
+        <f t="shared" ref="F5:F26" si="2">IFERROR(D5/$B5,"-")</f>
         <v>3.5587188612099648E-2</v>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="49">
-        <f>IFERROR(C6/$B6,"-")</f>
+        <f t="shared" si="1"/>
         <v>0.19924812030075187</v>
       </c>
       <c r="F6" s="49">
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="49">
-        <f>IFERROR(C7/$B7,"-")</f>
+        <f t="shared" si="1"/>
         <v>0.30324909747292417</v>
       </c>
       <c r="F7" s="49">
@@ -5834,7 +5834,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="49">
-        <f>IFERROR(C8/$B8,"-")</f>
+        <f t="shared" si="1"/>
         <v>0.50344827586206897</v>
       </c>
       <c r="F8" s="49">
@@ -5856,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="49">
-        <f>IFERROR(C9/$B9,"-")</f>
+        <f t="shared" si="1"/>
         <v>0.30396475770925108</v>
       </c>
       <c r="F9" s="49">
@@ -5878,7 +5878,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="49">
-        <f>IFERROR(C10/$B10,"-")</f>
+        <f t="shared" si="1"/>
         <v>0.43888888888888888</v>
       </c>
       <c r="F10" s="49">
@@ -5904,7 +5904,7 @@
         <v>-</v>
       </c>
       <c r="F11" s="49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
         <v>0.30991735537190085</v>
       </c>
       <c r="F12" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1322314049586778E-2</v>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
         <v>0.34883720930232559</v>
       </c>
       <c r="F13" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.441860465116279E-2</v>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
         <v>0.33606557377049179</v>
       </c>
       <c r="F14" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
         <v>0.39664804469273746</v>
       </c>
       <c r="F15" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2625698324022353E-2</v>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="F16" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0724637681159424E-2</v>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
         <v>0.61417322834645671</v>
       </c>
       <c r="F17" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15748031496062992</v>
       </c>
     </row>
@@ -6058,13 +6058,13 @@
         <v>0.2756183745583039</v>
       </c>
       <c r="F18" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3604240282685506E-2</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="69"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -6084,7 +6084,7 @@
         <v>0.60317460317460314</v>
       </c>
       <c r="F19" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15873015873015872</v>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
         <v>0.30916030534351147</v>
       </c>
       <c r="F20" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2519083969465645E-2</v>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
         <v>0.28222996515679444</v>
       </c>
       <c r="F21" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.878048780487805E-2</v>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
         <v>0.30483271375464682</v>
       </c>
       <c r="F22" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.204460966542751E-2</v>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
         <v>0.19852941176470587</v>
       </c>
       <c r="F23" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6764705882352942E-2</v>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         <v>0.33823529411764708</v>
       </c>
       <c r="F24" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3921568627450983E-2</v>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
         <v>0.48</v>
       </c>
       <c r="F25" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>0.34482758620689657</v>
       </c>
       <c r="F26" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2796934865900387E-2</v>
       </c>
     </row>
@@ -7421,23 +7421,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7817,7 +7817,9 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7862,10 +7864,22 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="D2" s="48" t="str">
+        <f>IF(C2&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E2" s="48" t="str">
+        <f>IF(C2&gt;=90,"A",IF(C2&gt;=80,"B",IF(C2&gt;=70,"C",IF(C2&gt;=60,"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F2" s="48" t="str">
+        <f>IF(OR(C2&lt;60,C2&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G2" s="48" t="str">
+        <f>IF(AND(B2="M",C2&gt;95),"Hombre Destacado",IF(AND(B2="F",C2&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7877,10 +7891,22 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="48" t="str">
+        <f>IF(C3&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E3" s="48" t="str">
+        <f>IF(C3&gt;=90,"A",IF(C3&gt;=80,"B",IF(C3&gt;=70,"C",IF(C3&gt;=60,"D","F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="F3" s="48" t="str">
+        <f>IF(OR(C3&lt;60,C3&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G3" s="48" t="str">
+        <f>IF(AND(B3="M",C3&gt;95),"Hombre Destacado",IF(AND(B3="F",C3&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -7892,10 +7918,22 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="48" t="str">
+        <f t="shared" ref="D3:D16" si="0">IF(C4&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E4" s="48" t="str">
+        <f t="shared" ref="E3:E16" si="1">IF(C4&gt;=90,"A",IF(C4&gt;=80,"B",IF(C4&gt;=70,"C",IF(C4&gt;=60,"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F4" s="48" t="str">
+        <f t="shared" ref="F3:F16" si="2">IF(OR(C4&lt;60,C4&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>ATÍPICO</v>
+      </c>
+      <c r="G4" s="48" t="str">
+        <f>IF(AND(B4="M",C4&gt;95),"Hombre Destacado",IF(AND(B4="F",C4&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Mujer Destacada</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -7907,10 +7945,22 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="D5" s="48" t="str">
+        <f>IF(C5&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E5" s="48" t="str">
+        <f>IF(C5&gt;=90,"A",IF(C5&gt;=80,"B",IF(C5&gt;=70,"C",IF(C5&gt;=60,"D","F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="F5" s="48" t="str">
+        <f>IF(OR(C5&lt;60,C5&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G5" s="48" t="str">
+        <f>IF(AND(B5="M",C5&gt;95),"Hombre Destacado",IF(AND(B5="F",C5&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -7922,10 +7972,22 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="D6" s="48" t="str">
+        <f>IF(C6&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E6" s="48" t="str">
+        <f>IF(C6&gt;=90,"A",IF(C6&gt;=80,"B",IF(C6&gt;=70,"C",IF(C6&gt;=60,"D","F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="F6" s="48" t="str">
+        <f>IF(OR(C6&lt;60,C6&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G6" s="48" t="str">
+        <f t="shared" ref="G2:G16" si="3">IF(AND(B6="M",C6&gt;95),"Hombre Destacado",IF(AND(B6="F",C6&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -7937,10 +7999,22 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="48" t="str">
+        <f>IF(C7&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>REPROBADO</v>
+      </c>
+      <c r="E7" s="48" t="str">
+        <f>IF(C7&gt;=90,"A",IF(C7&gt;=80,"B",IF(C7&gt;=70,"C",IF(C7&gt;=60,"D","F"))))</f>
+        <v>F</v>
+      </c>
+      <c r="F7" s="48" t="str">
+        <f>IF(OR(C7&lt;60,C7&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>ATÍPICO</v>
+      </c>
+      <c r="G7" s="48" t="str">
+        <f>IF(AND(B7="M",C7&gt;95),"Hombre Destacado",IF(AND(B7="F",C7&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -7952,10 +8026,22 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="48" t="str">
+        <f>IF(C8&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E8" s="48" t="str">
+        <f>IF(C8&gt;=90,"A",IF(C8&gt;=80,"B",IF(C8&gt;=70,"C",IF(C8&gt;=60,"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F8" s="48" t="str">
+        <f>IF(OR(C8&lt;60,C8&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>ATÍPICO</v>
+      </c>
+      <c r="G8" s="48" t="str">
+        <f>IF(AND(B8="M",C8&gt;95),"Hombre Destacado",IF(AND(B8="F",C8&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Hombre Destacado</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7967,10 +8053,22 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="48" t="str">
+        <f>IF(C9&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F9" s="48" t="str">
+        <f>IF(OR(C9&lt;60,C9&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G9" s="48" t="str">
+        <f>IF(AND(B9="M",C9&gt;95),"Hombre Destacado",IF(AND(B9="F",C9&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -7982,10 +8080,22 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>APROBADO</v>
+      </c>
+      <c r="E10" s="48" t="str">
+        <f>IF(C10&gt;=90,"A",IF(C10&gt;=80,"B",IF(C10&gt;=70,"C",IF(C10&gt;=60,"D","F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="F10" s="48" t="str">
+        <f>IF(OR(C10&lt;60,C10&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G10" s="48" t="str">
+        <f>IF(AND(B10="M",C10&gt;95),"Hombre Destacado",IF(AND(B10="F",C10&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -7997,10 +8107,22 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="48" t="str">
+        <f>IF(C11&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E11" s="48" t="str">
+        <f>IF(C11&gt;=90,"A",IF(C11&gt;=80,"B",IF(C11&gt;=70,"C",IF(C11&gt;=60,"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F11" s="48" t="str">
+        <f>IF(OR(C11&lt;60,C11&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G11" s="48" t="str">
+        <f>IF(AND(B11="M",C11&gt;95),"Hombre Destacado",IF(AND(B11="F",C11&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -8012,10 +8134,22 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="48" t="str">
+        <f>IF(C12&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E12" s="48" t="str">
+        <f>IF(C12&gt;=90,"A",IF(C12&gt;=80,"B",IF(C12&gt;=70,"C",IF(C12&gt;=60,"D","F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="F12" s="48" t="str">
+        <f>IF(OR(C12&lt;60,C12&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G12" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -8027,10 +8161,22 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="D13" s="48" t="str">
+        <f>IF(C13&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E13" s="48" t="str">
+        <f>IF(C13&gt;=90,"A",IF(C13&gt;=80,"B",IF(C13&gt;=70,"C",IF(C13&gt;=60,"D","F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="F13" s="48" t="str">
+        <f>IF(OR(C13&lt;60,C13&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G13" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -8042,10 +8188,22 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>APROBADO</v>
+      </c>
+      <c r="E14" s="48" t="str">
+        <f>IF(C14&gt;=90,"A",IF(C14&gt;=80,"B",IF(C14&gt;=70,"C",IF(C14&gt;=60,"D","F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="F14" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G14" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -8057,10 +8215,22 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="D15" s="48" t="str">
+        <f>IF(C15&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>APROBADO</v>
+      </c>
+      <c r="E15" s="48" t="str">
+        <f>IF(C15&gt;=90,"A",IF(C15&gt;=80,"B",IF(C15&gt;=70,"C",IF(C15&gt;=60,"D","F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="F15" s="48" t="str">
+        <f>IF(OR(C15&lt;60,C15&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>PROMEDIO</v>
+      </c>
+      <c r="G15" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguno</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -8072,10 +8242,22 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="48" t="str">
+        <f>IF(C16&gt;=60,"APROBADO","REPROBADO")</f>
+        <v>REPROBADO</v>
+      </c>
+      <c r="E16" s="48" t="str">
+        <f>IF(C16&gt;=90,"A",IF(C16&gt;=80,"B",IF(C16&gt;=70,"C",IF(C16&gt;=60,"D","F"))))</f>
+        <v>F</v>
+      </c>
+      <c r="F16" s="48" t="str">
+        <f>IF(OR(C16&lt;60,C16&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <v>ATÍPICO</v>
+      </c>
+      <c r="G16" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Ninguno</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103C113-FC03-42D4-B30D-4A0B296036FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB7807-1C70-4668-B9D5-C43428B09AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="257">
   <si>
     <t>Alabama</t>
   </si>
@@ -842,6 +842,9 @@
   <si>
     <t>Completada</t>
   </si>
+  <si>
+    <t>Alternativa</t>
+  </si>
 </sst>
 </file>
 
@@ -856,7 +859,7 @@
     <numFmt numFmtId="169" formatCode="m/d;@"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +925,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1087,7 +1097,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,6 +1284,7 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7817,7 +7828,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7919,15 +7930,15 @@
         <v>96</v>
       </c>
       <c r="D4" s="48" t="str">
-        <f t="shared" ref="D3:D16" si="0">IF(C4&gt;=60,"APROBADO","REPROBADO")</f>
+        <f t="shared" ref="D4:D14" si="0">IF(C4&gt;=60,"APROBADO","REPROBADO")</f>
         <v>APROBADO</v>
       </c>
       <c r="E4" s="48" t="str">
-        <f t="shared" ref="E3:E16" si="1">IF(C4&gt;=90,"A",IF(C4&gt;=80,"B",IF(C4&gt;=70,"C",IF(C4&gt;=60,"D","F"))))</f>
+        <f t="shared" ref="E4:E9" si="1">IF(C4&gt;=90,"A",IF(C4&gt;=80,"B",IF(C4&gt;=70,"C",IF(C4&gt;=60,"D","F"))))</f>
         <v>A</v>
       </c>
       <c r="F4" s="48" t="str">
-        <f t="shared" ref="F3:F16" si="2">IF(OR(C4&lt;60,C4&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" ref="F4:F14" si="2">IF(OR(C4&lt;60,C4&gt;90),"ATÍPICO","PROMEDIO")</f>
         <v>ATÍPICO</v>
       </c>
       <c r="G4" s="48" t="str">
@@ -7954,7 +7965,7 @@
         <v>C</v>
       </c>
       <c r="F5" s="48" t="str">
-        <f>IF(OR(C5&lt;60,C5&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" ref="F5:F13" si="3">IF(OR(C5&lt;60,C5&gt;90),"ATÍPICO","PROMEDIO")</f>
         <v>PROMEDIO</v>
       </c>
       <c r="G5" s="48" t="str">
@@ -7981,11 +7992,11 @@
         <v>D</v>
       </c>
       <c r="F6" s="48" t="str">
-        <f>IF(OR(C6&lt;60,C6&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G6" s="48" t="str">
-        <f t="shared" ref="G2:G16" si="3">IF(AND(B6="M",C6&gt;95),"Hombre Destacado",IF(AND(B6="F",C6&gt;95),"Mujer Destacada","Ninguno"))</f>
+        <f t="shared" ref="G6:G16" si="4">IF(AND(B6="M",C6&gt;95),"Hombre Destacado",IF(AND(B6="F",C6&gt;95),"Mujer Destacada","Ninguno"))</f>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8008,7 +8019,7 @@
         <v>F</v>
       </c>
       <c r="F7" s="48" t="str">
-        <f>IF(OR(C7&lt;60,C7&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>ATÍPICO</v>
       </c>
       <c r="G7" s="48" t="str">
@@ -8035,7 +8046,7 @@
         <v>A</v>
       </c>
       <c r="F8" s="48" t="str">
-        <f>IF(OR(C8&lt;60,C8&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>ATÍPICO</v>
       </c>
       <c r="G8" s="48" t="str">
@@ -8062,7 +8073,7 @@
         <v>B</v>
       </c>
       <c r="F9" s="48" t="str">
-        <f>IF(OR(C9&lt;60,C9&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G9" s="48" t="str">
@@ -8085,11 +8096,11 @@
         <v>APROBADO</v>
       </c>
       <c r="E10" s="48" t="str">
-        <f>IF(C10&gt;=90,"A",IF(C10&gt;=80,"B",IF(C10&gt;=70,"C",IF(C10&gt;=60,"D","F"))))</f>
+        <f t="shared" ref="E10:E16" si="5">IF(C10&gt;=90,"A",IF(C10&gt;=80,"B",IF(C10&gt;=70,"C",IF(C10&gt;=60,"D","F"))))</f>
         <v>D</v>
       </c>
       <c r="F10" s="48" t="str">
-        <f>IF(OR(C10&lt;60,C10&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G10" s="48" t="str">
@@ -8112,11 +8123,11 @@
         <v>APROBADO</v>
       </c>
       <c r="E11" s="48" t="str">
-        <f>IF(C11&gt;=90,"A",IF(C11&gt;=80,"B",IF(C11&gt;=70,"C",IF(C11&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>A</v>
       </c>
       <c r="F11" s="48" t="str">
-        <f>IF(OR(C11&lt;60,C11&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G11" s="48" t="str">
@@ -8139,15 +8150,15 @@
         <v>APROBADO</v>
       </c>
       <c r="E12" s="48" t="str">
-        <f>IF(C12&gt;=90,"A",IF(C12&gt;=80,"B",IF(C12&gt;=70,"C",IF(C12&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="F12" s="48" t="str">
-        <f>IF(OR(C12&lt;60,C12&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G12" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8166,15 +8177,15 @@
         <v>APROBADO</v>
       </c>
       <c r="E13" s="48" t="str">
-        <f>IF(C13&gt;=90,"A",IF(C13&gt;=80,"B",IF(C13&gt;=70,"C",IF(C13&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="F13" s="48" t="str">
-        <f>IF(OR(C13&lt;60,C13&gt;90),"ATÍPICO","PROMEDIO")</f>
+        <f t="shared" si="3"/>
         <v>PROMEDIO</v>
       </c>
       <c r="G13" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8193,7 +8204,7 @@
         <v>APROBADO</v>
       </c>
       <c r="E14" s="48" t="str">
-        <f>IF(C14&gt;=90,"A",IF(C14&gt;=80,"B",IF(C14&gt;=70,"C",IF(C14&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="F14" s="48" t="str">
@@ -8201,7 +8212,7 @@
         <v>PROMEDIO</v>
       </c>
       <c r="G14" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8220,7 +8231,7 @@
         <v>APROBADO</v>
       </c>
       <c r="E15" s="48" t="str">
-        <f>IF(C15&gt;=90,"A",IF(C15&gt;=80,"B",IF(C15&gt;=70,"C",IF(C15&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>D</v>
       </c>
       <c r="F15" s="48" t="str">
@@ -8228,7 +8239,7 @@
         <v>PROMEDIO</v>
       </c>
       <c r="G15" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8247,7 +8258,7 @@
         <v>REPROBADO</v>
       </c>
       <c r="E16" s="48" t="str">
-        <f>IF(C16&gt;=90,"A",IF(C16&gt;=80,"B",IF(C16&gt;=70,"C",IF(C16&gt;=60,"D","F"))))</f>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="F16" s="48" t="str">
@@ -8255,7 +8266,7 @@
         <v>ATÍPICO</v>
       </c>
       <c r="G16" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ninguno</v>
       </c>
     </row>
@@ -8272,7 +8283,9 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8377,6 +8390,9 @@
       <c r="H4" s="12" t="s">
         <v>189</v>
       </c>
+      <c r="I4" s="70" t="s">
+        <v>256</v>
+      </c>
       <c r="M4" s="2" t="s">
         <v>119</v>
       </c>
@@ -8397,7 +8413,14 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="40">
+        <f>SUMIF(A2:A70,H2,D2:D70)</f>
+        <v>620</v>
+      </c>
+      <c r="I5" s="70">
+        <f>SUMIFS(D2:D70,A2:A70,H2)</f>
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8461,9 +8484,18 @@
       <c r="G8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="40"/>
+      <c r="H8" s="40">
+        <f>SUMIFS($D$2:$D$70,$C$2:$C$70,G8,$A$2:$A$70,$H$2)</f>
+        <v>166</v>
+      </c>
+      <c r="I8" s="51">
+        <f t="shared" ref="I8:I10" si="0">SUMIFS($E$2:$E$70,$C$2:$C$70,G8,$A$2:$A$70,$H$2)</f>
+        <v>10015</v>
+      </c>
+      <c r="J8" s="40">
+        <f>COUNTIFS($C$2:$C$70,G8,$A$2:$A$70,$H$2)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -8484,9 +8516,18 @@
       <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="40"/>
+      <c r="H9" s="40">
+        <f>SUMIFS($D$2:$D$70,$C$2:$C$70,G9,$A$2:$A$70,$H$2)</f>
+        <v>372</v>
+      </c>
+      <c r="I9" s="51">
+        <f t="shared" si="0"/>
+        <v>42628</v>
+      </c>
+      <c r="J9" s="40">
+        <f>COUNTIFS($C$2:$C$70,G9,$A$2:$A$70,$H$2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -8507,9 +8548,18 @@
       <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="40"/>
+      <c r="H10" s="40">
+        <f>SUMIFS($D$2:$D$70,$C$2:$C$70,G10,$A$2:$A$70,$H$2)</f>
+        <v>82</v>
+      </c>
+      <c r="I10" s="51">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="J10" s="40">
+        <f>COUNTIFS($C$2:$C$70,G10,$A$2:$A$70,$H$2)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">

--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E72177-036B-4C67-BCC6-9C2D7EC5EE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FB267-263C-49AB-A25F-6710647CE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -9736,7 +9736,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" ref="A3:A66" si="0">B5&amp;C5</f>
+        <f t="shared" ref="A5:A66" si="0">B5&amp;C5</f>
         <v>Arkansas2001</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -19409,7 +19409,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -19660,7 +19660,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19703,169 +19703,463 @@
       <c r="A2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="48" t="str">
+        <f>LEFT(A2,6)</f>
+        <v>133462</v>
+      </c>
+      <c r="C2" s="48" t="str">
+        <f>LEFT(A2,SEARCH("-",A2)-1)</f>
+        <v>133462</v>
+      </c>
+      <c r="D2" s="48" t="str">
+        <f>MID(A2,SEARCH("-",A2)+1,2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E2" s="48" t="str">
+        <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A2)),"LARGE",IF(ISNUMBER(SEARCH("XL",A2)),"XL","Otro"))))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="F2" s="48" t="str">
+        <f>RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G2" s="48" t="str">
+        <f t="shared" ref="G2:G15" si="0">SUBSTITUTE(A2,"-","|",2)</f>
+        <v>133462-AA|BOS_SMALL</v>
+      </c>
+      <c r="H2" s="48" t="str">
+        <f t="shared" ref="H2:H15" si="1">MID(G2,SEARCH("|",G2)+1,3)</f>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="48" t="str">
+        <f>LEFT(A3,6)</f>
+        <v>191768</v>
+      </c>
+      <c r="C3" s="48" t="str">
+        <f>LEFT(A3,SEARCH("-",A3)-1)</f>
+        <v>191768</v>
+      </c>
+      <c r="D3" s="48" t="str">
+        <f>MID(A3,SEARCH("-",A3)+1,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E3" s="48" t="str">
+        <f t="shared" ref="E2:E15" si="2">IF(ISNUMBER(SEARCH("SMALL",A3)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A3)),"LARGE",IF(ISNUMBER(SEARCH("XL",A3)),"XL","Otro"))))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F3" s="48" t="str">
+        <f>RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G3" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>191768-AC|NYC_MEDIUM</v>
+      </c>
+      <c r="H3" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="B4" s="48" t="str">
+        <f>LEFT(A4,6)</f>
+        <v>157263</v>
+      </c>
+      <c r="C4" s="48" t="str">
+        <f t="shared" ref="C2:C15" si="3">LEFT(A4,SEARCH("-",A4)-1)</f>
+        <v>157263</v>
+      </c>
+      <c r="D4" s="48" t="str">
+        <f>MID(A4,SEARCH("-",A4)+1,2)</f>
+        <v>BB</v>
+      </c>
+      <c r="E4" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>XL</v>
+      </c>
+      <c r="F4" s="48" t="str">
+        <f>RIGHT(A4,LEN(A4)-SEARCH("_",A4))</f>
+        <v>XL</v>
+      </c>
+      <c r="G4" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>157263-BB|BOS_XL</v>
+      </c>
+      <c r="H4" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="B5" s="48" t="str">
+        <f>LEFT(A5,6)</f>
+        <v>173437</v>
+      </c>
+      <c r="C5" s="48" t="str">
+        <f>LEFT(A5,SEARCH("-",A5)-1)</f>
+        <v>1734372</v>
+      </c>
+      <c r="D5" s="48" t="str">
+        <f>MID(A5,SEARCH("-",A5)+1,2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E5" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>SMALL</v>
+      </c>
+      <c r="F5" s="48" t="str">
+        <f>RIGHT(A5,LEN(A5)-SEARCH("_",A5))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G5" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>1734372-AA|CHI_SMALL</v>
+      </c>
+      <c r="H5" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="48" t="str">
+        <f>LEFT(A6,6)</f>
+        <v>135351</v>
+      </c>
+      <c r="C6" s="48" t="str">
+        <f>LEFT(A6,SEARCH("-",A6)-1)</f>
+        <v>135351</v>
+      </c>
+      <c r="D6" s="48" t="str">
+        <f t="shared" ref="D2:D15" si="4">MID(A6,SEARCH("-",A6)+1,2)</f>
+        <v>BC</v>
+      </c>
+      <c r="E6" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>XL</v>
+      </c>
+      <c r="F6" s="48" t="str">
+        <f>RIGHT(A6,LEN(A6)-SEARCH("_",A6))</f>
+        <v>XL</v>
+      </c>
+      <c r="G6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>135351-BC|NYC_XL</v>
+      </c>
+      <c r="H6" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="48" t="str">
+        <f t="shared" ref="B2:B15" si="5">LEFT(A7,6)</f>
+        <v>143303</v>
+      </c>
+      <c r="C7" s="48" t="str">
+        <f>LEFT(A7,SEARCH("-",A7)-1)</f>
+        <v>14330305</v>
+      </c>
+      <c r="D7" s="48" t="str">
+        <f>MID(A7,SEARCH("-",A7)+1,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E7" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>LARGE</v>
+      </c>
+      <c r="F7" s="48" t="str">
+        <f>RIGHT(A7,LEN(A7)-SEARCH("_",A7))</f>
+        <v>LARGE</v>
+      </c>
+      <c r="G7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>14330305-AC|BOS_LARGE</v>
+      </c>
+      <c r="H7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="B8" s="48" t="str">
+        <f>LEFT(A8,6)</f>
+        <v>177772</v>
+      </c>
+      <c r="C8" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>177772</v>
+      </c>
+      <c r="D8" s="48" t="str">
+        <f>MID(A8,SEARCH("-",A8)+1,2)</f>
+        <v>BB</v>
+      </c>
+      <c r="E8" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F8" s="48" t="str">
+        <f>RIGHT(A8,LEN(A8)-SEARCH("_",A8))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>177772-BB|NYC_MEDIUM</v>
+      </c>
+      <c r="H8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="B9" s="48" t="str">
+        <f>LEFT(A9,6)</f>
+        <v>871928</v>
+      </c>
+      <c r="C9" s="48" t="str">
+        <f>LEFT(A9,SEARCH("-",A9)-1)</f>
+        <v>87192837</v>
+      </c>
+      <c r="D9" s="48" t="str">
+        <f>MID(A9,SEARCH("-",A9)+1,2)</f>
+        <v>AB</v>
+      </c>
+      <c r="E9" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>XL</v>
+      </c>
+      <c r="F9" s="48" t="str">
+        <f t="shared" ref="F2:F15" si="6">RIGHT(A9,LEN(A9)-SEARCH("_",A9))</f>
+        <v>XL</v>
+      </c>
+      <c r="G9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>87192837-AB|CHI_XL</v>
+      </c>
+      <c r="H9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="48" t="str">
+        <f>LEFT(A10,6)</f>
+        <v>161266</v>
+      </c>
+      <c r="C10" s="48" t="str">
+        <f>LEFT(A10,SEARCH("-",A10)-1)</f>
+        <v>161266</v>
+      </c>
+      <c r="D10" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>BB</v>
+      </c>
+      <c r="E10" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>SMALL</v>
+      </c>
+      <c r="F10" s="48" t="str">
+        <f>RIGHT(A10,LEN(A10)-SEARCH("_",A10))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>161266-BB|CHI_SMALL</v>
+      </c>
+      <c r="H10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="B11" s="48" t="str">
+        <f>LEFT(A11,6)</f>
+        <v>122892</v>
+      </c>
+      <c r="C11" s="48" t="str">
+        <f>LEFT(A11,SEARCH("-",A11)-1)</f>
+        <v>122892</v>
+      </c>
+      <c r="D11" s="48" t="str">
+        <f>MID(A11,SEARCH("-",A11)+1,2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E11" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F11" s="48" t="str">
+        <f>RIGHT(A11,LEN(A11)-SEARCH("_",A11))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>122892-AA|NYC_MEDIUM</v>
+      </c>
+      <c r="H11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="48" t="str">
+        <f>LEFT(A12,6)</f>
+        <v>128919</v>
+      </c>
+      <c r="C12" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>128919</v>
+      </c>
+      <c r="D12" s="48" t="str">
+        <f>MID(A12,SEARCH("-",A12)+1,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E12" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>XL</v>
+      </c>
+      <c r="F12" s="48" t="str">
+        <f>RIGHT(A12,LEN(A12)-SEARCH("_",A12))</f>
+        <v>XL</v>
+      </c>
+      <c r="G12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>128919-AC|CHI_XL</v>
+      </c>
+      <c r="H12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>191999</v>
+      </c>
+      <c r="C13" s="48" t="str">
+        <f>LEFT(A13,SEARCH("-",A13)-1)</f>
+        <v>191999</v>
+      </c>
+      <c r="D13" s="48" t="str">
+        <f>MID(A13,SEARCH("-",A13)+1,2)</f>
+        <v>BB</v>
+      </c>
+      <c r="E13" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>LARGE</v>
+      </c>
+      <c r="F13" s="48" t="str">
+        <f>RIGHT(A13,LEN(A13)-SEARCH("_",A13))</f>
+        <v>LARGE</v>
+      </c>
+      <c r="G13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>191999-BB|BOS_LARGE</v>
+      </c>
+      <c r="H13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="B14" s="48" t="str">
+        <f>LEFT(A14,6)</f>
+        <v>117091</v>
+      </c>
+      <c r="C14" s="48" t="str">
+        <f>LEFT(A14,SEARCH("-",A14)-1)</f>
+        <v>117091126</v>
+      </c>
+      <c r="D14" s="48" t="str">
+        <f>MID(A14,SEARCH("-",A14)+1,2)</f>
+        <v>BC</v>
+      </c>
+      <c r="E14" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>LARGE</v>
+      </c>
+      <c r="F14" s="48" t="str">
+        <f>RIGHT(A14,LEN(A14)-SEARCH("_",A14))</f>
+        <v>LARGE</v>
+      </c>
+      <c r="G14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>117091126-BC|NYC_LARGE</v>
+      </c>
+      <c r="H14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="48" t="str">
+        <f>LEFT(A15,6)</f>
+        <v>112283</v>
+      </c>
+      <c r="C15" s="48" t="str">
+        <f>LEFT(A15,SEARCH("-",A15)-1)</f>
+        <v>112283</v>
+      </c>
+      <c r="D15" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>AB</v>
+      </c>
+      <c r="E15" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F15" s="48" t="str">
+        <f t="shared" si="6"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>112283-AB|BOS_MEDIUM</v>
+      </c>
+      <c r="H15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>BOS</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FB267-263C-49AB-A25F-6710647CE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BCEA9-3AA1-4266-8F3E-59CBA9C3E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -853,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
@@ -861,6 +861,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="m/d;@"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="dddd"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1100,7 +1101,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,6 +1287,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6273,18 +6277,17 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6293,19 +6296,27 @@
       <c r="B2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="42">
+        <v>42005</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="42">
+        <f ca="1">TODAY()</f>
+        <v>45085</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="43">
+        <f ca="1">NOW()</f>
+        <v>45085.780454050924</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
@@ -6328,12 +6339,30 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="B7" s="44">
+        <f ca="1">YEAR(C3)</f>
+        <v>2023</v>
+      </c>
+      <c r="C7" s="44">
+        <f ca="1">MONTH(C3)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="44">
+        <f ca="1">DAY(C3)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="44">
+        <f ca="1">HOUR(C4)</f>
+        <v>18</v>
+      </c>
+      <c r="F7" s="44">
+        <f ca="1">MINUTE(C4)</f>
+        <v>43</v>
+      </c>
+      <c r="G7" s="44">
+        <f ca="1">SECOND(C4)</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
@@ -6348,7 +6377,10 @@
       <c r="B9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="71">
+        <f ca="1">WEEKDAY(C3)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -6358,63 +6390,220 @@
       <c r="B11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <f ca="1">WORKDAY(C3,50)</f>
+        <v>45155</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="45">
+        <f ca="1">NETWORKDAYS(C2,C3)</f>
+        <v>2201</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42">
+        <f ca="1">EOMONTH(C3,0)</f>
+        <v>45107</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="42">
+        <f ca="1">EOMONTH(C3,-1)+1</f>
+        <v>45078</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="42"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="42">
+        <f ca="1">EOMONTH(C3,-MONTH(C3))+1</f>
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>42005</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+      <c r="C19" s="20">
+        <v>42005</v>
+      </c>
+      <c r="D19" s="20">
+        <v>42005</v>
+      </c>
+      <c r="E19" s="20">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <v>42006</v>
+      </c>
+      <c r="C20" s="20">
+        <v>42006</v>
+      </c>
+      <c r="D20" s="20">
+        <v>42036</v>
+      </c>
+      <c r="E20" s="20">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>42007</v>
+      </c>
+      <c r="C21" s="20">
+        <v>42009</v>
+      </c>
+      <c r="D21" s="20">
+        <v>42064</v>
+      </c>
+      <c r="E21" s="20">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>42008</v>
+      </c>
+      <c r="C22" s="20">
+        <v>42010</v>
+      </c>
+      <c r="D22" s="20">
+        <v>42095</v>
+      </c>
+      <c r="E22" s="20">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <v>42009</v>
+      </c>
+      <c r="C23" s="20">
+        <v>42011</v>
+      </c>
+      <c r="D23" s="20">
+        <v>42125</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <v>42010</v>
+      </c>
+      <c r="C24" s="20">
+        <v>42012</v>
+      </c>
+      <c r="D24" s="20">
+        <v>42156</v>
+      </c>
+      <c r="E24" s="20">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
+        <v>42011</v>
+      </c>
+      <c r="C25" s="20">
+        <v>42013</v>
+      </c>
+      <c r="D25" s="20">
+        <v>42186</v>
+      </c>
+      <c r="E25" s="20">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
+        <v>42012</v>
+      </c>
+      <c r="C26" s="20">
+        <v>42016</v>
+      </c>
+      <c r="D26" s="20">
+        <v>42217</v>
+      </c>
+      <c r="E26" s="20">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <v>42013</v>
+      </c>
+      <c r="C27" s="20">
+        <v>42017</v>
+      </c>
+      <c r="D27" s="20">
+        <v>42248</v>
+      </c>
+      <c r="E27" s="20">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <v>42014</v>
+      </c>
+      <c r="C28" s="20">
+        <v>42018</v>
+      </c>
+      <c r="D28" s="20">
+        <v>42278</v>
+      </c>
+      <c r="E28" s="20">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
+        <v>42015</v>
+      </c>
+      <c r="C29" s="20">
+        <v>42019</v>
+      </c>
+      <c r="D29" s="20">
+        <v>42309</v>
+      </c>
+      <c r="E29" s="20">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
+        <v>42016</v>
+      </c>
+      <c r="C30" s="20">
+        <v>42020</v>
+      </c>
+      <c r="D30" s="20">
+        <v>42339</v>
+      </c>
+      <c r="E30" s="20">
+        <v>46023</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19660,7 +19849,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19720,15 +19909,15 @@
         <v>SMALL</v>
       </c>
       <c r="F2" s="48" t="str">
-        <f>RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
+        <f t="shared" ref="F2:F8" si="0">RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
         <v>SMALL</v>
       </c>
       <c r="G2" s="48" t="str">
-        <f t="shared" ref="G2:G15" si="0">SUBSTITUTE(A2,"-","|",2)</f>
+        <f t="shared" ref="G2:G15" si="1">SUBSTITUTE(A2,"-","|",2)</f>
         <v>133462-AA|BOS_SMALL</v>
       </c>
       <c r="H2" s="48" t="str">
-        <f t="shared" ref="H2:H15" si="1">MID(G2,SEARCH("|",G2)+1,3)</f>
+        <f t="shared" ref="H2:H15" si="2">MID(G2,SEARCH("|",G2)+1,3)</f>
         <v>BOS</v>
       </c>
     </row>
@@ -19749,19 +19938,19 @@
         <v>AC</v>
       </c>
       <c r="E3" s="48" t="str">
-        <f t="shared" ref="E2:E15" si="2">IF(ISNUMBER(SEARCH("SMALL",A3)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A3)),"LARGE",IF(ISNUMBER(SEARCH("XL",A3)),"XL","Otro"))))</f>
+        <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A3)),"LARGE",IF(ISNUMBER(SEARCH("XL",A3)),"XL","Otro"))))</f>
         <v>MEDIUM</v>
       </c>
       <c r="F3" s="48" t="str">
-        <f>RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
+        <f t="shared" si="0"/>
         <v>MEDIUM</v>
       </c>
       <c r="G3" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>191768-AC|NYC_MEDIUM</v>
       </c>
       <c r="H3" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NYC</v>
       </c>
     </row>
@@ -19774,7 +19963,7 @@
         <v>157263</v>
       </c>
       <c r="C4" s="48" t="str">
-        <f t="shared" ref="C2:C15" si="3">LEFT(A4,SEARCH("-",A4)-1)</f>
+        <f t="shared" ref="C4:C12" si="4">LEFT(A4,SEARCH("-",A4)-1)</f>
         <v>157263</v>
       </c>
       <c r="D4" s="48" t="str">
@@ -19782,19 +19971,19 @@
         <v>BB</v>
       </c>
       <c r="E4" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F4" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>XL</v>
+      </c>
+      <c r="G4" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>157263-BB|BOS_XL</v>
+      </c>
+      <c r="H4" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>XL</v>
-      </c>
-      <c r="F4" s="48" t="str">
-        <f>RIGHT(A4,LEN(A4)-SEARCH("_",A4))</f>
-        <v>XL</v>
-      </c>
-      <c r="G4" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>157263-BB|BOS_XL</v>
-      </c>
-      <c r="H4" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
     </row>
@@ -19815,19 +20004,19 @@
         <v>AA</v>
       </c>
       <c r="E5" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>SMALL</v>
+      </c>
+      <c r="F5" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G5" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>1734372-AA|CHI_SMALL</v>
+      </c>
+      <c r="H5" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>SMALL</v>
-      </c>
-      <c r="F5" s="48" t="str">
-        <f>RIGHT(A5,LEN(A5)-SEARCH("_",A5))</f>
-        <v>SMALL</v>
-      </c>
-      <c r="G5" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>1734372-AA|CHI_SMALL</v>
-      </c>
-      <c r="H5" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>CHI</v>
       </c>
     </row>
@@ -19844,23 +20033,23 @@
         <v>135351</v>
       </c>
       <c r="D6" s="48" t="str">
-        <f t="shared" ref="D2:D15" si="4">MID(A6,SEARCH("-",A6)+1,2)</f>
+        <f t="shared" ref="D6:D15" si="5">MID(A6,SEARCH("-",A6)+1,2)</f>
         <v>BC</v>
       </c>
       <c r="E6" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>XL</v>
+      </c>
+      <c r="G6" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>135351-BC|NYC_XL</v>
+      </c>
+      <c r="H6" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>XL</v>
-      </c>
-      <c r="F6" s="48" t="str">
-        <f>RIGHT(A6,LEN(A6)-SEARCH("_",A6))</f>
-        <v>XL</v>
-      </c>
-      <c r="G6" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>135351-BC|NYC_XL</v>
-      </c>
-      <c r="H6" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>NYC</v>
       </c>
     </row>
@@ -19869,7 +20058,7 @@
         <v>145</v>
       </c>
       <c r="B7" s="48" t="str">
-        <f t="shared" ref="B2:B15" si="5">LEFT(A7,6)</f>
+        <f t="shared" ref="B7:B13" si="6">LEFT(A7,6)</f>
         <v>143303</v>
       </c>
       <c r="C7" s="48" t="str">
@@ -19881,19 +20070,19 @@
         <v>AC</v>
       </c>
       <c r="E7" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>LARGE</v>
+      </c>
+      <c r="F7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>14330305-AC|BOS_LARGE</v>
+      </c>
+      <c r="H7" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>LARGE</v>
-      </c>
-      <c r="F7" s="48" t="str">
-        <f>RIGHT(A7,LEN(A7)-SEARCH("_",A7))</f>
-        <v>LARGE</v>
-      </c>
-      <c r="G7" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>14330305-AC|BOS_LARGE</v>
-      </c>
-      <c r="H7" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
     </row>
@@ -19906,7 +20095,7 @@
         <v>177772</v>
       </c>
       <c r="C8" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>177772</v>
       </c>
       <c r="D8" s="48" t="str">
@@ -19914,19 +20103,19 @@
         <v>BB</v>
       </c>
       <c r="E8" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>177772-BB|NYC_MEDIUM</v>
+      </c>
+      <c r="H8" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>MEDIUM</v>
-      </c>
-      <c r="F8" s="48" t="str">
-        <f>RIGHT(A8,LEN(A8)-SEARCH("_",A8))</f>
-        <v>MEDIUM</v>
-      </c>
-      <c r="G8" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>177772-BB|NYC_MEDIUM</v>
-      </c>
-      <c r="H8" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>NYC</v>
       </c>
     </row>
@@ -19947,19 +20136,19 @@
         <v>AB</v>
       </c>
       <c r="E9" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F9" s="48" t="str">
+        <f t="shared" ref="F9:F15" si="7">RIGHT(A9,LEN(A9)-SEARCH("_",A9))</f>
+        <v>XL</v>
+      </c>
+      <c r="G9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>87192837-AB|CHI_XL</v>
+      </c>
+      <c r="H9" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>XL</v>
-      </c>
-      <c r="F9" s="48" t="str">
-        <f t="shared" ref="F2:F15" si="6">RIGHT(A9,LEN(A9)-SEARCH("_",A9))</f>
-        <v>XL</v>
-      </c>
-      <c r="G9" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>87192837-AB|CHI_XL</v>
-      </c>
-      <c r="H9" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>CHI</v>
       </c>
     </row>
@@ -19976,11 +20165,11 @@
         <v>161266</v>
       </c>
       <c r="D10" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BB</v>
       </c>
       <c r="E10" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SMALL</v>
       </c>
       <c r="F10" s="48" t="str">
@@ -19988,11 +20177,11 @@
         <v>SMALL</v>
       </c>
       <c r="G10" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161266-BB|CHI_SMALL</v>
       </c>
       <c r="H10" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CHI</v>
       </c>
     </row>
@@ -20013,7 +20202,7 @@
         <v>AA</v>
       </c>
       <c r="E11" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MEDIUM</v>
       </c>
       <c r="F11" s="48" t="str">
@@ -20021,11 +20210,11 @@
         <v>MEDIUM</v>
       </c>
       <c r="G11" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122892-AA|NYC_MEDIUM</v>
       </c>
       <c r="H11" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NYC</v>
       </c>
     </row>
@@ -20038,7 +20227,7 @@
         <v>128919</v>
       </c>
       <c r="C12" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128919</v>
       </c>
       <c r="D12" s="48" t="str">
@@ -20046,7 +20235,7 @@
         <v>AC</v>
       </c>
       <c r="E12" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>XL</v>
       </c>
       <c r="F12" s="48" t="str">
@@ -20054,11 +20243,11 @@
         <v>XL</v>
       </c>
       <c r="G12" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128919-AC|CHI_XL</v>
       </c>
       <c r="H12" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CHI</v>
       </c>
     </row>
@@ -20067,7 +20256,7 @@
         <v>151</v>
       </c>
       <c r="B13" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>191999</v>
       </c>
       <c r="C13" s="48" t="str">
@@ -20079,7 +20268,7 @@
         <v>BB</v>
       </c>
       <c r="E13" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>LARGE</v>
       </c>
       <c r="F13" s="48" t="str">
@@ -20087,11 +20276,11 @@
         <v>LARGE</v>
       </c>
       <c r="G13" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>191999-BB|BOS_LARGE</v>
       </c>
       <c r="H13" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BOS</v>
       </c>
     </row>
@@ -20112,7 +20301,7 @@
         <v>BC</v>
       </c>
       <c r="E14" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>LARGE</v>
       </c>
       <c r="F14" s="48" t="str">
@@ -20120,11 +20309,11 @@
         <v>LARGE</v>
       </c>
       <c r="G14" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117091126-BC|NYC_LARGE</v>
       </c>
       <c r="H14" s="48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NYC</v>
       </c>
     </row>
@@ -20141,23 +20330,23 @@
         <v>112283</v>
       </c>
       <c r="D15" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AB</v>
       </c>
       <c r="E15" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="F15" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>112283-AB|BOS_MEDIUM</v>
+      </c>
+      <c r="H15" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>MEDIUM</v>
-      </c>
-      <c r="F15" s="48" t="str">
-        <f t="shared" si="6"/>
-        <v>MEDIUM</v>
-      </c>
-      <c r="G15" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>112283-AB|BOS_MEDIUM</v>
-      </c>
-      <c r="H15" s="48" t="str">
-        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
     </row>

--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5BCEA9-3AA1-4266-8F3E-59CBA9C3E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A451FF0-4AFF-408E-BA84-F3EE77B9A1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -853,14 +853,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="m/d;@"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="dddd"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
@@ -1257,12 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1280,6 +1273,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,7 +1285,10 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1297,78 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5687,22 +5757,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6079,10 +6149,10 @@
         <f t="shared" si="2"/>
         <v>6.3604240282685506E-2</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -6279,7 +6349,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6306,7 +6376,7 @@
       </c>
       <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>45085</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6315,7 +6385,7 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>45085.780454050924</v>
+        <v>45086.791605439816</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6349,7 +6419,7 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
@@ -6357,11 +6427,11 @@
       </c>
       <c r="F7" s="44">
         <f ca="1">MINUTE(C4)</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6377,9 +6447,9 @@
       <c r="B9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="66">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C11" s="42">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>45155</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6401,7 +6471,7 @@
       </c>
       <c r="C12" s="45">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6618,13 +6688,15 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" style="35" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="56" customWidth="1"/>
@@ -6657,23 +6729,23 @@
       <c r="A2" s="20">
         <v>41640</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="18">
         <v>1099</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="18">
         <v>275</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="18">
         <v>643</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="18">
         <f>B2-D2</f>
         <v>456</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="70">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6682,23 +6754,23 @@
       <c r="A3" s="20">
         <v>41671</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="18">
         <v>1204</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="18">
         <f>B3-B2</f>
         <v>105</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="18">
         <v>720</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="18">
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="71">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6707,24 +6779,24 @@
       <c r="A4" s="20">
         <v>41699</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="18">
         <v>1944</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C25" si="1">B4-B3</f>
         <v>740</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="18">
         <v>964</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="18">
         <f t="shared" ref="E4:E25" si="2">B4-D4</f>
         <v>980</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="71">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6733,24 +6805,24 @@
       <c r="A5" s="20">
         <v>41730</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <v>1743</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="18">
         <f t="shared" si="1"/>
         <v>-201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="18">
         <v>830</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="18">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="71">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6759,24 +6831,24 @@
       <c r="A6" s="20">
         <v>41760</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="18">
         <v>1609</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="18">
         <f t="shared" si="1"/>
         <v>-134</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="18">
         <v>910</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="18">
         <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="71">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6785,24 +6857,24 @@
       <c r="A7" s="20">
         <v>41791</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="18">
         <v>1494</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="18">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="18">
         <v>909</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="18">
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="71">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6811,24 +6883,24 @@
       <c r="A8" s="20">
         <v>41821</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="18">
         <v>1959</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="18">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="18">
         <v>830</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="18">
         <f t="shared" si="2"/>
         <v>1129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="71">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6837,24 +6909,24 @@
       <c r="A9" s="20">
         <v>41852</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="18">
         <v>1868</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="18">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="18">
         <v>906</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="18">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="71">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6863,24 +6935,24 @@
       <c r="A10" s="20">
         <v>41883</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="18">
         <v>1162</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="18">
         <f t="shared" si="1"/>
         <v>-706</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="18">
         <v>606</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="18">
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="71">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6889,24 +6961,24 @@
       <c r="A11" s="20">
         <v>41913</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="18">
         <v>1424</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="18">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="18">
         <v>943</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="18">
         <f t="shared" si="2"/>
         <v>481</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="71">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6915,24 +6987,24 @@
       <c r="A12" s="20">
         <v>41944</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="18">
         <v>1232</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="18">
         <f t="shared" si="1"/>
         <v>-192</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="18">
         <v>801</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="18">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="71">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6941,24 +7013,24 @@
       <c r="A13" s="20">
         <v>41974</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="18">
         <v>1738</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="18">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="18">
         <v>786</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="18">
         <f t="shared" si="2"/>
         <v>952</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="71">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6967,24 +7039,24 @@
       <c r="A14" s="20">
         <v>42005</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="18">
         <v>1435</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="18">
         <f t="shared" si="1"/>
         <v>-303</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>575</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="18">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="71">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6993,24 +7065,24 @@
       <c r="A15" s="20">
         <v>42036</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="18">
         <v>1865</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="18">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="18">
         <v>754</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="18">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="71">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -7019,24 +7091,24 @@
       <c r="A16" s="20">
         <v>42064</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="18">
         <v>1234</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="18">
         <f t="shared" si="1"/>
         <v>-631</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="18">
         <v>599</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="18">
         <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="71">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -7045,24 +7117,24 @@
       <c r="A17" s="20">
         <v>42095</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="18">
         <v>1577</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="18">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="18">
         <v>940</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="18">
         <f t="shared" si="2"/>
         <v>637</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="71">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -7071,24 +7143,24 @@
       <c r="A18" s="20">
         <v>42125</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="18">
         <v>1983</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="18">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="18">
         <v>954</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="18">
         <f t="shared" si="2"/>
         <v>1029</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="71">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -7097,24 +7169,24 @@
       <c r="A19" s="20">
         <v>42156</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="18">
         <v>1356</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="18">
         <f t="shared" si="1"/>
         <v>-627</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="18">
         <v>577</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="18">
         <f t="shared" si="2"/>
         <v>779</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="71">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -7123,23 +7195,23 @@
       <c r="A20" s="20">
         <v>42186</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="18">
         <v>1874</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="18">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="18">
         <v>865</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="18">
         <v>883</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="71">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -7148,24 +7220,24 @@
       <c r="A21" s="20">
         <v>42217</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="18">
         <v>1479</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="18">
         <f t="shared" si="1"/>
         <v>-395</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="18">
         <v>588</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="18">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="71">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -7174,23 +7246,23 @@
       <c r="A22" s="20">
         <v>42248</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="18">
         <v>1943</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="18">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="18">
         <v>785</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="18">
         <v>712</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="71">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -7199,24 +7271,24 @@
       <c r="A23" s="20">
         <v>42278</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="18">
         <v>1444</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="18">
         <f t="shared" si="1"/>
         <v>-499</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="18">
         <v>657</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="18">
         <f t="shared" si="2"/>
         <v>787</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="71">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -7225,24 +7297,24 @@
       <c r="A24" s="20">
         <v>42309</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="18">
         <v>1493</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="18">
         <v>880</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="18">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="71">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -7251,29 +7323,60 @@
       <c r="A25" s="20">
         <v>42339</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="18">
         <v>1738</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="18">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="18">
         <v>580</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="18">
         <f t="shared" si="2"/>
         <v>1158</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="71">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="-199"/>
+        <cfvo type="num" val="200"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$G2&lt;0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F25">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F2="Kids"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7413,7 +7516,7 @@
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7431,7 +7534,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7624,23 +7727,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="G1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7908,7 +8011,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
-      <c r="I15" s="64" t="str">
+      <c r="I15" s="62" t="str">
         <f t="array" ref="I15">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-ROW(A$3)+1),ROWS(A$3:A15))),"")</f>
         <v/>
       </c>
@@ -8582,7 +8685,7 @@
       <c r="H4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="65" t="s">
         <v>256</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -8609,7 +8712,7 @@
         <f>SUMIF(A2:A70,H2,D2:D70)</f>
         <v>620</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="65">
         <f>SUMIFS(D2:D70,A2:A70,H2)</f>
         <v>620</v>
       </c>
@@ -19382,7 +19485,7 @@
       <c r="D5" s="6">
         <v>46</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="61" t="s">
         <v>124</v>
       </c>
       <c r="G5" s="52">

--- a/ExcelF&F_Ejercicios_Tarea.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A451FF0-4AFF-408E-BA84-F3EE77B9A1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061D7BD9-956A-4EEE-816A-5FDD2F291E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -47,6 +47,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="258">
   <si>
@@ -860,7 +882,7 @@
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="m/d;@"/>
-    <numFmt numFmtId="171" formatCode="dddd"/>
+    <numFmt numFmtId="170" formatCode="dddd"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1273,7 +1295,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1285,39 +1313,13 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1329,42 +1331,12 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6376,7 +6348,7 @@
       </c>
       <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6385,7 +6357,7 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>45086.791605439816</v>
+        <v>45087.791505324072</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6419,7 +6391,7 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
@@ -6431,7 +6403,7 @@
       </c>
       <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6421,7 @@
       </c>
       <c r="C9" s="66">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6688,8 +6660,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6745,7 +6717,7 @@
       <c r="F2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="67">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6770,7 +6742,7 @@
       <c r="F3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="68">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6796,7 +6768,7 @@
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6822,7 +6794,7 @@
       <c r="F5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6848,7 +6820,7 @@
       <c r="F6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="68">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6874,7 +6846,7 @@
       <c r="F7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="68">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6900,7 +6872,7 @@
       <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="68">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6926,7 +6898,7 @@
       <c r="F9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="68">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6952,7 +6924,7 @@
       <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="68">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6978,7 +6950,7 @@
       <c r="F11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="68">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -7004,7 +6976,7 @@
       <c r="F12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="68">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -7030,7 +7002,7 @@
       <c r="F13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="68">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -7056,7 +7028,7 @@
       <c r="F14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="68">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -7082,7 +7054,7 @@
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="68">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -7108,7 +7080,7 @@
       <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="68">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -7134,7 +7106,7 @@
       <c r="F17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="68">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -7160,7 +7132,7 @@
       <c r="F18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="68">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -7186,7 +7158,7 @@
       <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="68">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -7211,7 +7183,7 @@
       <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="68">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -7237,7 +7209,7 @@
       <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="68">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -7262,7 +7234,7 @@
       <c r="F22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="68">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -7288,7 +7260,7 @@
       <c r="F23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="68">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -7314,7 +7286,7 @@
       <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="68">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -7340,22 +7312,20 @@
       <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="68">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G2&lt;0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
@@ -7367,14 +7337,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$G2&lt;0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F25">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F2="Kids"</formula>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7389,7 +7361,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7438,7 +7410,10 @@
       <c r="G2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="51" cm="1">
+        <f t="array" ref="H2">MAX(IF(B2:B16="NYC",E2:E16))</f>
+        <v>25897</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -7476,7 +7451,10 @@
       <c r="G4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="51" cm="1">
+        <f t="array" ref="H4">MAX(IF((B2:B16="NYC")*(C2:C16="Electronics"),E2:E16))</f>
+        <v>15414</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -7514,7 +7492,10 @@
       <c r="G6" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="40" cm="1">
+        <f t="array" ref="H6">SUM(IF(E2:E16&gt;D2:D16,1,0))</f>
+        <v>9</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="57"/>
     </row>
@@ -7555,7 +7536,10 @@
       <c r="G8" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="51" cm="1">
+        <f t="array" ref="H8">SUM(IF(B2:B16="BOS",D2:E16))</f>
+        <v>140337</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7706,7 +7690,7 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7727,23 +7711,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="G1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
